--- a/biology/Histoire de la zoologie et de la botanique/Christian_Friedrich_Lessing/Christian_Friedrich_Lessing.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Christian_Friedrich_Lessing/Christian_Friedrich_Lessing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Friedrich Lessing (1809 - 1862) est un botaniste prussien, frère du peintre Carl Friedrich Lessing (1808-1880).
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lessing était un spécialiste des Asteraceae. Il publia en 1832 à leur sujet un traité nommé Synopsis generum Compositarum. Au terme d'études botaniques assidues en Sibérie, il décéda en 1862 à Krasnoïarsk.
 </t>
@@ -542,7 +556,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre végétal Lessingia (en), de la famille des Asteraceae, a été nommé ainsi en son honneur.
 </t>
@@ -573,7 +589,9 @@
           <t>Publications (liste sans doute incomplète)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Reise durch Norwegen nach den Loffoden durch Lappland und Schweden, 1831
 Synopsis generum Compositarum, earumque dispositionis novae tentamen, monographiis multarum Capensium interjectis, 1832</t>
